--- a/data/trans_dic/P19C03-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,63; 33,95</t>
+          <t>24,18; 33,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,27; 41,53</t>
+          <t>31,5; 41,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,37; 28,96</t>
+          <t>19,53; 28,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,91; 22,54</t>
+          <t>14,86; 22,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,59; 38,2</t>
+          <t>26,65; 37,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,53; 32,63</t>
+          <t>21,52; 32,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,43; 25,55</t>
+          <t>16,74; 25,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,59; 20,76</t>
+          <t>14,6; 20,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,82; 33,97</t>
+          <t>27,32; 34,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,53; 36,06</t>
+          <t>28,86; 36,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,68; 26,36</t>
+          <t>19,52; 25,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 20,58</t>
+          <t>15,49; 20,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,05; 39,04</t>
+          <t>27,96; 39,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,96; 32,52</t>
+          <t>23,52; 33,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,88; 31,47</t>
+          <t>21,49; 31,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,93; 19,33</t>
+          <t>11,94; 19,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,0; 42,55</t>
+          <t>31,9; 42,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,48; 35,99</t>
+          <t>24,76; 36,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,76; 33,86</t>
+          <t>23,76; 34,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,5; 19,79</t>
+          <t>13,72; 19,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,71; 39,24</t>
+          <t>31,72; 39,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,4; 32,73</t>
+          <t>25,35; 32,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,9; 31,19</t>
+          <t>24,05; 30,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,49</t>
+          <t>13,75; 18,69</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,97; 39,86</t>
+          <t>30,67; 39,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,46; 33,87</t>
+          <t>25,48; 33,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,39; 34,99</t>
+          <t>24,88; 34,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 22,82</t>
+          <t>4,56; 22,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,1; 40,0</t>
+          <t>23,92; 39,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,37; 36,88</t>
+          <t>24,69; 36,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,29; 34,18</t>
+          <t>19,0; 33,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,78; 21,95</t>
+          <t>11,75; 21,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,7; 38,74</t>
+          <t>30,66; 38,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,31; 32,84</t>
+          <t>26,15; 33,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,41; 32,63</t>
+          <t>24,73; 32,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 20,57</t>
+          <t>6,71; 21,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,22; 34,28</t>
+          <t>27,83; 34,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,83; 31,98</t>
+          <t>25,98; 32,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,08; 32,73</t>
+          <t>26,38; 32,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 24,89</t>
+          <t>19,06; 24,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,95; 39,91</t>
+          <t>32,03; 40,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,35; 36,48</t>
+          <t>29,04; 36,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,65; 36,88</t>
+          <t>29,67; 36,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,46; 22,27</t>
+          <t>9,51; 22,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,56; 35,47</t>
+          <t>30,7; 35,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,83; 32,84</t>
+          <t>28,2; 32,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,61; 33,54</t>
+          <t>28,83; 33,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,05; 22,3</t>
+          <t>13,33; 22,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,4; 40,41</t>
+          <t>27,64; 40,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,8; 32,61</t>
+          <t>23,44; 33,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,02; 31,44</t>
+          <t>23,1; 31,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,86; 22,8</t>
+          <t>14,44; 22,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,83; 38,39</t>
+          <t>29,86; 38,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,22; 31,22</t>
+          <t>24,53; 31,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,85; 32,75</t>
+          <t>24,76; 32,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,26; 30,7</t>
+          <t>15,31; 31,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,27; 37,45</t>
+          <t>30,36; 37,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
+          <t>25,3; 30,77</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>25,02; 30,83</t>
         </is>
       </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>25,28; 30,94</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,05; 27,56</t>
+          <t>16,21; 26,84</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,14; 35,98</t>
+          <t>24,55; 37,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,76; 39,7</t>
+          <t>26,66; 39,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,38; 32,16</t>
+          <t>20,19; 32,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,99; 27,31</t>
+          <t>8,91; 27,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,95; 29,89</t>
+          <t>24,01; 29,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,39; 30,07</t>
+          <t>24,4; 30,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,08; 22,83</t>
+          <t>16,91; 22,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,45; 18,12</t>
+          <t>12,24; 17,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,19; 30,36</t>
+          <t>25,14; 30,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,48; 30,72</t>
+          <t>25,56; 30,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,65; 23,83</t>
+          <t>18,74; 23,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,31; 18,55</t>
+          <t>12,33; 18,45</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,27; 33,91</t>
+          <t>30,13; 33,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28,28; 31,75</t>
+          <t>28,15; 31,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,74; 29,16</t>
+          <t>25,79; 29,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,89</t>
+          <t>13,76; 19,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,34; 33,82</t>
+          <t>30,11; 33,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,47; 30,66</t>
+          <t>27,44; 30,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,57; 27,81</t>
+          <t>24,54; 27,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,14; 19,83</t>
+          <t>14,5; 19,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,72; 33,36</t>
+          <t>30,8; 33,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,34; 30,82</t>
+          <t>28,38; 30,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>25,53; 28,01</t>
+          <t>25,6; 28,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,2; 19,33</t>
+          <t>15,19; 19,26</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por un empaste</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>112179</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>143051</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>93846</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>91995</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>87421</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>78560</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>65941</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>76359</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>199601</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>221611</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>168354</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>93417; 130459</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>124525; 162612</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>75713; 112288</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>74067; 113615</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>71498; 101773</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>62845; 95716</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>52868; 81071</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>64369; 90516</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>178806; 223576</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>198373; 251364</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>137296; 181558</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>145472; 192856</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>99954</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>106433</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>82521</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>69218</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>123663</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>95144</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>95299</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62140</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>223618</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>201577</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>177820</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>131358</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>83925; 117135</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>90040; 127094</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>68065; 99721</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>53562; 87337</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>106424; 141368</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>77635; 113547</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>79266; 113813</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51799; 73991</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>201019; 248179</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>176522; 227269</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>156368; 201231</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>113564; 154395</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>151623</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>156485</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>120370</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>89097</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>44648</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>72402</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36041</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26919</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>196271</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>228887</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>156412</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>116016</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>131970; 172025</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>136426; 178655</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>100806; 138775</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30112; 148959</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33504; 55450</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>59421; 87177</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26486; 47294</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19386; 36085</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>174869; 221417</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>202975; 256518</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>134666; 177460</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>55366; 174535</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>271701</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>281403</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>257870</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>216799</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>213630</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>228394</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>226078</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>162098</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>485331</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>509797</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>483948</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>378897</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>242252; 298048</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>252460; 311450</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>232046; 286382</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>190254; 248871</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>191001; 241015</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>202689; 256805</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>202974; 250333</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>91195; 214089</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>450294; 524240</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>470853; 546720</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>450733; 524318</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>260815; 437503</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>82954</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>113631</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>114735</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>79816</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>155323</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>185970</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>160123</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>167411</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>238277</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>299600</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>274858</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>247227</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>68524; 99536</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>94550; 133395</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>98221; 134871</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>63353; 99143</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>136169; 177677</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>164308; 207826</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>138042; 181052</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>124512; 253058</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>213757; 266260</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>271547; 330233</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>245865; 302963</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>202920; 336049</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>64356</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>72624</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>62743</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>37370</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>254119</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>250248</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>163776</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>109348</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>318475</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>322872</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>226519</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>146718</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>52109; 78889</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>58731; 85910</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>48762; 78490</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>20676; 62738</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>227010; 280619</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>226082; 278845</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>139592; 186444</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>91023; 133021</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>291130; 348320</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>293109; 354487</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>199974; 254158</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>120361; 180041</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1682</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1413</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1475</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>782768</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>873627</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>732086</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>584294</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>878804</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>910717</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>747258</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>604276</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1661572</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1784344</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1479344</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1188570</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>737405; 830551</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>818894; 925199</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>685036; 780318</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>450805; 652680</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>824887; 925822</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>861690; 964865</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>700881; 792990</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>507437; 695305</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1597520; 1731663</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1716983; 1861944</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1411081; 1545716</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1029299; 1305133</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19C03-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
